--- a/natmiOut/OldD4/LR-pairs_lrc2p/Sema3e-Plxnd1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Sema3e-Plxnd1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -83,12 +89,6 @@
   </si>
   <si>
     <t>Plxnd1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
   <si>
     <t>M1</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>2.53761022859481</v>
+        <v>0.05911933333333333</v>
       </c>
       <c r="H2">
-        <v>2.53761022859481</v>
+        <v>0.177358</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.01566160381541316</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.02320577774905081</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>100.532598529955</v>
+        <v>110.864399</v>
       </c>
       <c r="N2">
-        <v>100.532598529955</v>
+        <v>332.593197</v>
       </c>
       <c r="O2">
-        <v>0.4602190568165552</v>
+        <v>0.4698467856635863</v>
       </c>
       <c r="P2">
-        <v>0.4602190568165552</v>
+        <v>0.4940325573104491</v>
       </c>
       <c r="Q2">
-        <v>255.1125503368294</v>
+        <v>6.554229359280667</v>
       </c>
       <c r="R2">
-        <v>255.1125503368294</v>
+        <v>58.988064233526</v>
       </c>
       <c r="S2">
-        <v>0.4602190568165552</v>
+        <v>0.007358554211008434</v>
       </c>
       <c r="T2">
-        <v>0.4602190568165552</v>
+        <v>0.01146440972574149</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>2.53761022859481</v>
+        <v>0.05911933333333333</v>
       </c>
       <c r="H3">
-        <v>2.53761022859481</v>
+        <v>0.177358</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.01566160381541316</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.02320577774905081</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>31.7817514737238</v>
+        <v>34.721522</v>
       </c>
       <c r="N3">
-        <v>31.7817514737238</v>
+        <v>104.164566</v>
       </c>
       <c r="O3">
-        <v>0.1454907950365687</v>
+        <v>0.1471508947164138</v>
       </c>
       <c r="P3">
-        <v>0.1454907950365687</v>
+        <v>0.1547256149142253</v>
       </c>
       <c r="Q3">
-        <v>80.6496976223797</v>
+        <v>2.052713232958666</v>
       </c>
       <c r="R3">
-        <v>80.6496976223797</v>
+        <v>18.474419096628</v>
       </c>
       <c r="S3">
-        <v>0.1454907950365687</v>
+        <v>0.002304619014132047</v>
       </c>
       <c r="T3">
-        <v>0.1454907950365687</v>
+        <v>0.003590528231784732</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -661,49 +661,49 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>2.53761022859481</v>
+        <v>0.05911933333333333</v>
       </c>
       <c r="H4">
-        <v>2.53761022859481</v>
+        <v>0.177358</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.01566160381541316</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.02320577774905081</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>27.8539172027845</v>
+        <v>30.88149066666667</v>
       </c>
       <c r="N4">
-        <v>27.8539172027845</v>
+        <v>92.64447200000001</v>
       </c>
       <c r="O4">
-        <v>0.1275099190825386</v>
+        <v>0.1308767219874919</v>
       </c>
       <c r="P4">
-        <v>0.1275099190825386</v>
+        <v>0.1376137149998179</v>
       </c>
       <c r="Q4">
-        <v>70.68238520021889</v>
+        <v>1.825693140552889</v>
       </c>
       <c r="R4">
-        <v>70.68238520021889</v>
+        <v>16.431238264976</v>
       </c>
       <c r="S4">
-        <v>0.1275099190825386</v>
+        <v>0.002049739368428071</v>
       </c>
       <c r="T4">
-        <v>0.1275099190825386</v>
+        <v>0.003193433285506994</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
@@ -723,49 +723,49 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>2.53761022859481</v>
+        <v>0.05911933333333333</v>
       </c>
       <c r="H5">
-        <v>2.53761022859481</v>
+        <v>0.177358</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.01566160381541316</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.02320577774905081</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>24.5286121058883</v>
+        <v>24.836561</v>
       </c>
       <c r="N5">
-        <v>24.5286121058883</v>
+        <v>74.509683</v>
       </c>
       <c r="O5">
-        <v>0.1122873067388931</v>
+        <v>0.1052581212548456</v>
       </c>
       <c r="P5">
-        <v>0.1122873067388931</v>
+        <v>0.1106763745287336</v>
       </c>
       <c r="Q5">
-        <v>62.24405697313664</v>
+        <v>1.468320928612667</v>
       </c>
       <c r="R5">
-        <v>62.24405697313664</v>
+        <v>13.214888357514</v>
       </c>
       <c r="S5">
-        <v>0.1122873067388931</v>
+        <v>0.001648510993448111</v>
       </c>
       <c r="T5">
-        <v>0.1122873067388931</v>
+        <v>0.002568331349384501</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,681 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.05911933333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.177358</v>
+      </c>
+      <c r="I6">
+        <v>0.01566160381541316</v>
+      </c>
+      <c r="J6">
+        <v>0.02320577774905081</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>34.654647</v>
+      </c>
+      <c r="N6">
+        <v>69.30929399999999</v>
+      </c>
+      <c r="O6">
+        <v>0.1468674763776624</v>
+      </c>
+      <c r="P6">
+        <v>0.1029517382467741</v>
+      </c>
+      <c r="Q6">
+        <v>2.048759627542</v>
+      </c>
+      <c r="R6">
+        <v>12.292557765252</v>
+      </c>
+      <c r="S6">
+        <v>0.002300180228396501</v>
+      </c>
+      <c r="T6">
+        <v>0.002389075156633092</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.03413</v>
+      </c>
+      <c r="H7">
+        <v>0.10239</v>
+      </c>
+      <c r="I7">
+        <v>0.009041552197589925</v>
+      </c>
+      <c r="J7">
+        <v>0.01339685598464863</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>110.864399</v>
+      </c>
+      <c r="N7">
+        <v>332.593197</v>
+      </c>
+      <c r="O7">
+        <v>0.4698467856635863</v>
+      </c>
+      <c r="P7">
+        <v>0.4940325573104491</v>
+      </c>
+      <c r="Q7">
+        <v>3.78380193787</v>
+      </c>
+      <c r="R7">
+        <v>34.05421744083</v>
+      </c>
+      <c r="S7">
+        <v>0.004248144237447161</v>
+      </c>
+      <c r="T7">
+        <v>0.006618483022015759</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.03413</v>
+      </c>
+      <c r="H8">
+        <v>0.10239</v>
+      </c>
+      <c r="I8">
+        <v>0.009041552197589925</v>
+      </c>
+      <c r="J8">
+        <v>0.01339685598464863</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>34.721522</v>
+      </c>
+      <c r="N8">
+        <v>104.164566</v>
+      </c>
+      <c r="O8">
+        <v>0.1471508947164138</v>
+      </c>
+      <c r="P8">
+        <v>0.1547256149142253</v>
+      </c>
+      <c r="Q8">
+        <v>1.18504554586</v>
+      </c>
+      <c r="R8">
+        <v>10.66540991274</v>
+      </c>
+      <c r="S8">
+        <v>0.001330472495500515</v>
+      </c>
+      <c r="T8">
+        <v>0.002072836780142078</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.03413</v>
+      </c>
+      <c r="H9">
+        <v>0.10239</v>
+      </c>
+      <c r="I9">
+        <v>0.009041552197589925</v>
+      </c>
+      <c r="J9">
+        <v>0.01339685598464863</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>30.88149066666667</v>
+      </c>
+      <c r="N9">
+        <v>92.64447200000001</v>
+      </c>
+      <c r="O9">
+        <v>0.1308767219874919</v>
+      </c>
+      <c r="P9">
+        <v>0.1376137149998179</v>
+      </c>
+      <c r="Q9">
+        <v>1.053985276453333</v>
+      </c>
+      <c r="R9">
+        <v>9.48586748808</v>
+      </c>
+      <c r="S9">
+        <v>0.001183328713299373</v>
+      </c>
+      <c r="T9">
+        <v>0.001843591121365042</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.03413</v>
+      </c>
+      <c r="H10">
+        <v>0.10239</v>
+      </c>
+      <c r="I10">
+        <v>0.009041552197589925</v>
+      </c>
+      <c r="J10">
+        <v>0.01339685598464863</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>24.836561</v>
+      </c>
+      <c r="N10">
+        <v>74.509683</v>
+      </c>
+      <c r="O10">
+        <v>0.1052581212548456</v>
+      </c>
+      <c r="P10">
+        <v>0.1106763745287336</v>
+      </c>
+      <c r="Q10">
+        <v>0.84767182693</v>
+      </c>
+      <c r="R10">
+        <v>7.629046442369999</v>
+      </c>
+      <c r="S10">
+        <v>0.0009516967975459361</v>
+      </c>
+      <c r="T10">
+        <v>0.001482715450464479</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.03413</v>
+      </c>
+      <c r="H11">
+        <v>0.10239</v>
+      </c>
+      <c r="I11">
+        <v>0.009041552197589925</v>
+      </c>
+      <c r="J11">
+        <v>0.01339685598464863</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>34.654647</v>
+      </c>
+      <c r="N11">
+        <v>69.30929399999999</v>
+      </c>
+      <c r="O11">
+        <v>0.1468674763776624</v>
+      </c>
+      <c r="P11">
+        <v>0.1029517382467741</v>
+      </c>
+      <c r="Q11">
+        <v>1.18276310211</v>
+      </c>
+      <c r="R11">
+        <v>7.096578612659999</v>
+      </c>
+      <c r="S11">
+        <v>0.00132790995379694</v>
+      </c>
+      <c r="T11">
+        <v>0.001379229610661275</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>20</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>2.53761022859481</v>
-      </c>
-      <c r="H6">
-        <v>2.53761022859481</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>33.7482220821081</v>
-      </c>
-      <c r="N6">
-        <v>33.7482220821081</v>
-      </c>
-      <c r="O6">
-        <v>0.1544929223254445</v>
-      </c>
-      <c r="P6">
-        <v>0.1544929223254445</v>
-      </c>
-      <c r="Q6">
-        <v>85.63983355244676</v>
-      </c>
-      <c r="R6">
-        <v>85.63983355244676</v>
-      </c>
-      <c r="S6">
-        <v>0.1544929223254445</v>
-      </c>
-      <c r="T6">
-        <v>0.1544929223254445</v>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>3.681545</v>
+      </c>
+      <c r="H12">
+        <v>7.363090000000001</v>
+      </c>
+      <c r="I12">
+        <v>0.9752968439869969</v>
+      </c>
+      <c r="J12">
+        <v>0.9633973662663006</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>110.864399</v>
+      </c>
+      <c r="N12">
+        <v>332.593197</v>
+      </c>
+      <c r="O12">
+        <v>0.4698467856635863</v>
+      </c>
+      <c r="P12">
+        <v>0.4940325573104491</v>
+      </c>
+      <c r="Q12">
+        <v>408.1522738164551</v>
+      </c>
+      <c r="R12">
+        <v>2448.91364289873</v>
+      </c>
+      <c r="S12">
+        <v>0.4582400872151307</v>
+      </c>
+      <c r="T12">
+        <v>0.4759496645626918</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>3.681545</v>
+      </c>
+      <c r="H13">
+        <v>7.363090000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.9752968439869969</v>
+      </c>
+      <c r="J13">
+        <v>0.9633973662663006</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>34.721522</v>
+      </c>
+      <c r="N13">
+        <v>104.164566</v>
+      </c>
+      <c r="O13">
+        <v>0.1471508947164138</v>
+      </c>
+      <c r="P13">
+        <v>0.1547256149142253</v>
+      </c>
+      <c r="Q13">
+        <v>127.82884571149</v>
+      </c>
+      <c r="R13">
+        <v>766.9730742689401</v>
+      </c>
+      <c r="S13">
+        <v>0.1435158032067813</v>
+      </c>
+      <c r="T13">
+        <v>0.1490622499022985</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>3.681545</v>
+      </c>
+      <c r="H14">
+        <v>7.363090000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.9752968439869969</v>
+      </c>
+      <c r="J14">
+        <v>0.9633973662663006</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>30.88149066666667</v>
+      </c>
+      <c r="N14">
+        <v>92.64447200000001</v>
+      </c>
+      <c r="O14">
+        <v>0.1308767219874919</v>
+      </c>
+      <c r="P14">
+        <v>0.1376137149998179</v>
+      </c>
+      <c r="Q14">
+        <v>113.6915975564133</v>
+      </c>
+      <c r="R14">
+        <v>682.1495853384802</v>
+      </c>
+      <c r="S14">
+        <v>0.1276436539057645</v>
+      </c>
+      <c r="T14">
+        <v>0.1325766905929459</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>3.681545</v>
+      </c>
+      <c r="H15">
+        <v>7.363090000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.9752968439869969</v>
+      </c>
+      <c r="J15">
+        <v>0.9633973662663006</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>24.836561</v>
+      </c>
+      <c r="N15">
+        <v>74.509683</v>
+      </c>
+      <c r="O15">
+        <v>0.1052581212548456</v>
+      </c>
+      <c r="P15">
+        <v>0.1106763745287336</v>
+      </c>
+      <c r="Q15">
+        <v>91.436916966745</v>
+      </c>
+      <c r="R15">
+        <v>548.62150180047</v>
+      </c>
+      <c r="S15">
+        <v>0.1026579134638516</v>
+      </c>
+      <c r="T15">
+        <v>0.1066253277288847</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>3.681545</v>
+      </c>
+      <c r="H16">
+        <v>7.363090000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.9752968439869969</v>
+      </c>
+      <c r="J16">
+        <v>0.9633973662663006</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>34.654647</v>
+      </c>
+      <c r="N16">
+        <v>69.30929399999999</v>
+      </c>
+      <c r="O16">
+        <v>0.1468674763776624</v>
+      </c>
+      <c r="P16">
+        <v>0.1029517382467741</v>
+      </c>
+      <c r="Q16">
+        <v>127.582642389615</v>
+      </c>
+      <c r="R16">
+        <v>510.33056955846</v>
+      </c>
+      <c r="S16">
+        <v>0.143239386195469</v>
+      </c>
+      <c r="T16">
+        <v>0.09918343347947969</v>
       </c>
     </row>
   </sheetData>
